--- a/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200602.xlsx
+++ b/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200602.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\shaanxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB71A90-EF10-4A17-B23A-B9AA1C59C5EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACE1586-F228-4997-8B4C-90BC5FA0E8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10562,23 +10562,27 @@
       <b/>
       <sz val="9"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFE2C23"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF0D0015"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10629,6 +10633,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11054,49 +11059,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="45.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11.84375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="45.84375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="31.84375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="31.84375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.15234375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="27.3828125" style="12" customWidth="1"/>
     <col min="7" max="7" width="44" style="12" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="12" customWidth="1"/>
-    <col min="9" max="12" width="12.5" style="12" customWidth="1"/>
-    <col min="13" max="15" width="21.25" style="14" customWidth="1"/>
-    <col min="16" max="22" width="12.5" style="12" customWidth="1"/>
-    <col min="23" max="24" width="26.625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.15234375" style="12" customWidth="1"/>
+    <col min="9" max="12" width="12.4609375" style="12" customWidth="1"/>
+    <col min="13" max="15" width="21.23046875" style="14" customWidth="1"/>
+    <col min="16" max="22" width="12.4609375" style="12" customWidth="1"/>
+    <col min="23" max="24" width="26.61328125" style="12" customWidth="1"/>
     <col min="25" max="25" width="7" style="12" customWidth="1"/>
-    <col min="26" max="26" width="31.875" style="13" customWidth="1"/>
+    <col min="26" max="26" width="31.84375" style="13" customWidth="1"/>
     <col min="27" max="27" width="18" style="12" customWidth="1"/>
-    <col min="28" max="28" width="10.625" style="12" customWidth="1"/>
-    <col min="29" max="29" width="31.875" style="12" customWidth="1"/>
-    <col min="30" max="30" width="16.125" style="12" customWidth="1"/>
+    <col min="28" max="28" width="10.61328125" style="12" customWidth="1"/>
+    <col min="29" max="29" width="31.84375" style="12" customWidth="1"/>
+    <col min="30" max="30" width="16.15234375" style="12" customWidth="1"/>
     <col min="31" max="31" width="20" style="12" customWidth="1"/>
-    <col min="32" max="32" width="31.875" style="12" customWidth="1"/>
-    <col min="33" max="33" width="21.875" style="12" customWidth="1"/>
-    <col min="34" max="34" width="20.875" style="12" customWidth="1"/>
-    <col min="35" max="35" width="25.5" style="12" customWidth="1"/>
-    <col min="36" max="36" width="31.875" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.875" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="12" customWidth="1"/>
+    <col min="32" max="32" width="31.84375" style="12" customWidth="1"/>
+    <col min="33" max="33" width="21.84375" style="12" customWidth="1"/>
+    <col min="34" max="34" width="20.84375" style="12" customWidth="1"/>
+    <col min="35" max="35" width="25.4609375" style="12" customWidth="1"/>
+    <col min="36" max="36" width="31.84375" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.84375" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="8.875" style="12" customWidth="1"/>
-    <col min="41" max="42" width="31.875" style="12" customWidth="1"/>
-    <col min="43" max="43" width="21.875" style="12" customWidth="1"/>
-    <col min="44" max="44" width="24.5" style="12" customWidth="1"/>
+    <col min="40" max="40" width="8.84375" style="12" customWidth="1"/>
+    <col min="41" max="42" width="31.84375" style="12" customWidth="1"/>
+    <col min="43" max="43" width="21.84375" style="12" customWidth="1"/>
+    <col min="44" max="44" width="24.4609375" style="12" customWidth="1"/>
     <col min="45" max="45" width="31" style="12" customWidth="1"/>
-    <col min="46" max="46" width="5.125" style="12" customWidth="1"/>
-    <col min="47" max="16384" width="10.875" style="12"/>
+    <col min="46" max="46" width="5.15234375" style="12" customWidth="1"/>
+    <col min="47" max="16384" width="10.84375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="11" customFormat="1" ht="15">
+    <row r="1" spans="1:46" s="11" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -12643,10 +12648,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">

--- a/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200602.xlsx
+++ b/data/unchecked/manual_collect/china/shaanxi/shaanxiCaseStatistics_20200602.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\shaanxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACE1586-F228-4997-8B4C-90BC5FA0E8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20466DA-AFA7-48A9-9AE8-A25AB08CB75C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11059,7 +11059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
